--- a/public/import/template/导入模板_物料分类.xlsx
+++ b/public/import/template/导入模板_物料分类.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18052" windowHeight="8655"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="物料分类" sheetId="1" r:id="rId1"/>
@@ -27,36 +27,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
-    <t>分类编码</t>
+    <t>物料分类代码</t>
   </si>
   <si>
-    <t>分类名称</t>
+    <t>物料分类名称</t>
   </si>
   <si>
-    <t>分类描述</t>
+    <t>物料分类描述</t>
   </si>
   <si>
-    <t>计算类型</t>
+    <t>物料投料规则</t>
   </si>
   <si>
-    <t>投料规则</t>
+    <t>小数位计算类型</t>
+  </si>
+  <si>
+    <t>是否手工创建</t>
   </si>
   <si>
     <t>1013-IMPORT</t>
   </si>
   <si>
-    <t>数码-IMPORT</t>
+    <t>同时一时间可使用多个生产批次半成品</t>
   </si>
   <si>
-    <t>PCBA</t>
+    <t>有小数进位取整</t>
   </si>
   <si>
-    <t>ceil</t>
-  </si>
-  <si>
-    <t>multilot</t>
+    <t>是</t>
   </si>
 </sst>
 </file>
@@ -69,7 +69,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -80,13 +80,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -564,160 +569,161 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1251,18 +1257,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="4" width="25" customWidth="1"/>
+    <col min="1" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="46.4601769911504" customWidth="1"/>
+    <col min="5" max="5" width="19.1238938053097" customWidth="1"/>
+    <col min="6" max="6" width="12.283185840708" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.85" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1278,26 +1287,43 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3:D1048576">
+      <formula1>"限制工单只能使用一个生产批次,同时一时间可使用多个生产批次半成品,限制工单同一时刻只能使用一个生产批次,工单同一时间可使用多个生产批次"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2 E3:E1048576">
+      <formula1>"不做任何处理,有小数进位取整"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="D1" listDataValidation="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>